--- a/Predicción de producción lotes de banano 10-11-2023 (1).xlsx
+++ b/Predicción de producción lotes de banano 10-11-2023 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danid\OneDrive\Desktop\Orlando\Curso nuevo suelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Diego\git\Matriz-de-correlacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED8F8BD-DBAD-458E-A53D-62C66D051C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B784FD9-16B0-4D8C-8A12-713BC7B856BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>pH</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve">B </t>
-  </si>
-  <si>
-    <t>Fincas</t>
   </si>
   <si>
     <t>Finca1</t>
@@ -676,20 +673,18 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="11.42578125" style="17"/>
-    <col min="9" max="9" width="11.42578125" style="17"/>
-    <col min="13" max="13" width="11.42578125" style="17"/>
+    <col min="7" max="7" width="11.44140625" style="17"/>
+    <col min="9" max="9" width="11.44140625" style="17"/>
+    <col min="13" max="13" width="11.44140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,15 +725,15 @@
         <v>12</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="13">
         <v>4.3</v>
@@ -783,12 +778,12 @@
         <v>40320</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>4.5</v>
@@ -833,12 +828,12 @@
         <v>42822</v>
       </c>
       <c r="P3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4">
         <v>4.4000000000000004</v>
@@ -883,12 +878,12 @@
         <v>39623</v>
       </c>
       <c r="P4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
         <v>4.5</v>
@@ -933,12 +928,12 @@
         <v>40320</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>4.5999999999999996</v>
@@ -983,12 +978,12 @@
         <v>40320</v>
       </c>
       <c r="P6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>4.5999999999999996</v>
@@ -1033,12 +1028,12 @@
         <v>51500</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4">
         <v>4.4000000000000004</v>
@@ -1083,12 +1078,12 @@
         <v>50090</v>
       </c>
       <c r="P8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>4.2</v>
@@ -1133,12 +1128,12 @@
         <v>29670</v>
       </c>
       <c r="P9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <v>4.3</v>
@@ -1183,12 +1178,12 @@
         <v>37982</v>
       </c>
       <c r="P10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <v>4.2</v>
@@ -1233,12 +1228,12 @@
         <v>39000</v>
       </c>
       <c r="P11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4">
         <v>4.5</v>
@@ -1283,12 +1278,12 @@
         <v>44823</v>
       </c>
       <c r="P12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4">
         <v>4.8</v>
@@ -1333,12 +1328,12 @@
         <v>34874</v>
       </c>
       <c r="P13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4">
         <v>4.9000000000000004</v>
@@ -1383,12 +1378,12 @@
         <v>38643</v>
       </c>
       <c r="P14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>4.4000000000000004</v>
@@ -1433,12 +1428,12 @@
         <v>34000</v>
       </c>
       <c r="P15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4">
         <v>4.5999999999999996</v>
@@ -1483,12 +1478,12 @@
         <v>32046</v>
       </c>
       <c r="P16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4">
         <v>4.4000000000000004</v>
@@ -1533,12 +1528,12 @@
         <v>28400</v>
       </c>
       <c r="P17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="4">
         <v>5.2</v>
@@ -1583,12 +1578,12 @@
         <v>37982</v>
       </c>
       <c r="P18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="4">
         <v>4.8</v>
@@ -1633,12 +1628,12 @@
         <v>37982</v>
       </c>
       <c r="P19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="20">
         <v>6</v>
@@ -1683,12 +1678,12 @@
         <v>34874</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4">
         <v>5</v>
@@ -1733,12 +1728,12 @@
         <v>35962</v>
       </c>
       <c r="P21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4">
         <v>4.9000000000000004</v>
@@ -1783,12 +1778,12 @@
         <v>35763</v>
       </c>
       <c r="P22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="4">
         <v>4.5</v>
@@ -1833,12 +1828,12 @@
         <v>32384</v>
       </c>
       <c r="P23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
@@ -1883,12 +1878,12 @@
         <v>36926</v>
       </c>
       <c r="P24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6">
         <v>6.1</v>
@@ -1933,12 +1928,12 @@
         <v>85238</v>
       </c>
       <c r="P25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6">
         <v>6.8</v>
@@ -1983,12 +1978,12 @@
         <v>81378</v>
       </c>
       <c r="P26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6">
         <v>6.3</v>
@@ -2033,12 +2028,12 @@
         <v>81003</v>
       </c>
       <c r="P27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6">
         <v>5.7</v>
@@ -2083,12 +2078,12 @@
         <v>80322</v>
       </c>
       <c r="P28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6">
         <v>5.3</v>
@@ -2133,12 +2128,12 @@
         <v>77209</v>
       </c>
       <c r="P29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="6">
         <v>5.2</v>
@@ -2183,12 +2178,12 @@
         <v>74270</v>
       </c>
       <c r="P30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6">
         <v>5.4</v>
@@ -2233,12 +2228,12 @@
         <v>86450</v>
       </c>
       <c r="P31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="6">
         <v>5.5</v>
@@ -2283,12 +2278,12 @@
         <v>81355</v>
       </c>
       <c r="P32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="6">
         <v>5.5</v>
@@ -2333,12 +2328,12 @@
         <v>85390</v>
       </c>
       <c r="P33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="6">
         <v>5.5</v>
@@ -2383,12 +2378,12 @@
         <v>81355</v>
       </c>
       <c r="P34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="6">
         <v>5.2</v>
@@ -2433,12 +2428,12 @@
         <v>80341</v>
       </c>
       <c r="P35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="6">
         <v>5.6</v>
@@ -2483,12 +2478,12 @@
         <v>75233</v>
       </c>
       <c r="P36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="6">
         <v>6.8</v>
@@ -2533,12 +2528,12 @@
         <v>79985</v>
       </c>
       <c r="P37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="6">
         <v>5.0999999999999996</v>
@@ -2583,12 +2578,12 @@
         <v>70265</v>
       </c>
       <c r="P38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="6">
         <v>5</v>
@@ -2633,12 +2628,12 @@
         <v>75233</v>
       </c>
       <c r="P39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="6">
         <v>5.6</v>
@@ -2683,12 +2678,12 @@
         <v>80333</v>
       </c>
       <c r="P40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="6">
         <v>5.8</v>
@@ -2733,12 +2728,12 @@
         <v>70734</v>
       </c>
       <c r="P41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="6">
         <v>5.2</v>
@@ -2783,12 +2778,12 @@
         <v>81343</v>
       </c>
       <c r="P42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="6">
         <v>5</v>
@@ -2833,12 +2828,12 @@
         <v>75000</v>
       </c>
       <c r="P43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="7">
         <v>5.0999999999999996</v>
@@ -2883,7 +2878,7 @@
         <v>74834</v>
       </c>
       <c r="P44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
